--- a/master_thesis_calculations.xlsx
+++ b/master_thesis_calculations.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\seq_to_seq_and_dock_AMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25BD04C-2DBD-4836-A19B-C42529812801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9519832E-C723-4145-9BF4-AD6F60EF2FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17505" yWindow="2475" windowWidth="21600" windowHeight="11505" firstSheet="5" activeTab="6" xr2:uid="{0600041E-E69E-4BC2-A3EF-7AE6C317D999}"/>
+    <workbookView xWindow="-10170" yWindow="2025" windowWidth="21600" windowHeight="11505" xr2:uid="{0600041E-E69E-4BC2-A3EF-7AE6C317D999}"/>
   </bookViews>
   <sheets>
-    <sheet name="QED_descriptor" sheetId="1" r:id="rId1"/>
-    <sheet name="tanh_activation_function" sheetId="2" r:id="rId2"/>
-    <sheet name="ReLU_activation" sheetId="3" r:id="rId3"/>
-    <sheet name="SoftMAX_activation" sheetId="4" r:id="rId4"/>
-    <sheet name="Adam_optimizer" sheetId="5" r:id="rId5"/>
+    <sheet name="loss and validation loss" sheetId="8" r:id="rId1"/>
+    <sheet name="QED_descriptor" sheetId="1" r:id="rId2"/>
+    <sheet name="tanh_activation_function" sheetId="2" r:id="rId3"/>
+    <sheet name="ReLU_activation" sheetId="3" r:id="rId4"/>
+    <sheet name="SoftMAX_activation" sheetId="4" r:id="rId5"/>
     <sheet name="Categorical_cross_entropy" sheetId="6" r:id="rId6"/>
     <sheet name="Tanimoto similarity" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="446">
   <si>
     <t>MW</t>
   </si>
@@ -176,14 +176,1218 @@
   </si>
   <si>
     <t>Tc(A,B)</t>
+  </si>
+  <si>
+    <t>Val _loss</t>
+  </si>
+  <si>
+    <t>0.722473680973053,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5965003371238708,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5338025689125061,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5010992884635925,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4809981882572174,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.45327091217041016,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.43726277351379395,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4300016462802887,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.41494548320770264,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.39526641368865967,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.38440054655075073,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.38069185614585876,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3697100579738617,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.35877498984336853,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3477858603000641,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.35707443952560425,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3362599015235901,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3460123836994171,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3263316750526428,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.33699557185173035,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.31739041209220886,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3051367998123169,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.30975377559661865,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.29564863443374634,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2854629456996918,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2932701110839844,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.27487191557884216,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.27098459005355835,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2696356773376465,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.29771822690963745,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2674742639064789,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2530386745929718,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2452760934829712,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2396545261144638,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.23373627662658691,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.22587120532989502,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2351682484149933,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2308581918478012,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.22753699123859406,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.22312743961811066,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.22451792657375336,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2211335003376007,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.21000605821609497,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20220860838890076,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20748521387577057,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.21432112157344818,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19865256547927856,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20347383618354797,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19934584200382233,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2027537077665329,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19482934474945068,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18866637349128723,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19639109075069427,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1937050074338913,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19910664856433868,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1834983378648758,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.171161487698555,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17616374790668488,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17263641953468323,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1948099136352539,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17152822017669678,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17891234159469604,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.16670867800712585,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15189725160598755,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20949412882328033,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.16428795456886292,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15100106596946716,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1566164791584015,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15024080872535706,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17701496183872223,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2642923891544342,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1433761864900589,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15554696321487427,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.14953026175498962,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12933950126171112,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13526715338230133,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1420747935771942,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13130174577236176,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1410328894853592,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12571464478969574,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1297636330127716,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12322746962308884,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12478293478488922,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12216918915510178,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11940587311983109,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1617548018693924,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12517410516738892,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11674412339925766,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11681655794382095,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12857766449451447,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11352787166833878,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10772018134593964,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12238588184118271,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10986607521772385,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11618690937757492,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12357825040817261,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11057551950216293,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10504668205976486,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10704130679368973,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11149415373802185,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11395132541656494,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10753687471151352,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11200370639562607,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1340745985507965,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11324780434370041,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10353463888168335,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0953468531370163,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09212230145931244,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10909338295459747,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09273073077201843,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09343881905078888,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09343528747558594,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08992139995098114,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09603859484195709,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1037541851401329,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09725192189216614,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08813255280256271,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10457105934619904,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09898579865694046,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08790314197540283,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07919319719076157,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17067663371562958,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0863344818353653,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08360845595598221,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08470651507377625,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08082415163516998,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08418285846710205,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08013096451759338,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08390951156616211,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08277677744626999,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08209110051393509,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08578892052173615,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0780559852719307,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10443232953548431,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07744576781988144,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08065640181303024,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07409647107124329,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07660515606403351,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07905757427215576,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06911198049783707,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07322710752487183,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08209969848394394,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1568785160779953,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07433801889419556,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07270334661006927,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07066696137189865,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07266581058502197,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07129455357789993,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07256892323493958,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07348816841840744,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07988148927688599,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07354660332202911,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08193547278642654,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0672166645526886,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06689757108688354,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07760631293058395,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07246556133031845,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07454867660999298,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07676438987255096,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06313994526863098,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06940680742263794,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.061801642179489136,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06411831080913544,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06248827651143074,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07446610927581787,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.47119107842445374,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06868742406368256,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07233402878046036,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07188909500837326,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06523630023002625,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06661180406808853,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06061048433184624,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06025434657931328,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0638074278831482,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05920032411813736,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06382337212562561,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06267230212688446,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06253991276025772,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2547408640384674,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06369234621524811,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06512849777936935,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06135278195142746,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07519920915365219,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05700625106692314,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05775469169020653,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08408728986978531,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06338730454444885,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06246650964021683,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05552351102232933,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0661744773387909,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0596768818795681,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06769157946109772,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06006960570812225,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07100056111812592,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.058740340173244476,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06012530252337456,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05524123087525368,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0687822550535202,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05400409922003746,</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>0.9961462020874023,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.674160361289978,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.57845538854599,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5321699976921082,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5024058222770691,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.48117560148239136,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.46241670846939087,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.44882115721702576,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.43655943870544434,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4250446856021881,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.40811893343925476,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.39582231640815735,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3865862488746643,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3770475685596466,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.37299391627311707,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.36152321100234985,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3558712601661682,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.35256749391555786,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.34135133028030396,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.35036924481391907,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3311070501804352,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3187498450279236,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.31331393122673035,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.31219911575317383,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.30111491680145264,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2932611107826233,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2914021909236908,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.28146350383758545,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.28481951355934143,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.271344929933548,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26680538058280945,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2613651156425476,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.25395604968070984,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26532942056655884,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.24479202926158905,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.24485766887664795,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2506304979324341,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.23536907136440277,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.23071226477622986,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2299642264842987,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2226865589618683,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2225690633058548,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.21693776547908783,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.21611516177654266,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.21361583471298218,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2094276398420334,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.21068233251571655,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2048548460006714,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20358984172344208,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20253558456897736,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1986285150051117,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19983310997486115,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19341054558753967,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20347025990486145,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19046908617019653,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1863909363746643,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18250925838947296,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18115650117397308,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1788128763437271,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17352242767810822,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1708756387233734,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17863167822360992,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.16505026817321777,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.16547776758670807,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20994536578655243,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.16203299164772034,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.156494602560997,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15492494404315948,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15427029132843018,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15387269854545593,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1502244770526886,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15334771573543549,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.14374510943889618,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.14405257999897003,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.14081810414791107,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1452757716178894,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13739332556724548,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13689489662647247,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13560660183429718,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13098281621932983,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13152027130126953,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12742291390895844,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12689624726772308,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12576371431350708,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12326686829328537,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1516331285238266,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12734872102737427,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12088952958583832,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12253271043300629,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11733211576938629,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11721896380186081,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11469552665948868,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1132759377360344,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11276935786008835,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11023519933223724,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10854615271091461,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10902425646781921,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11206319183111191,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.14247249066829681,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10536859929561615,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10526199638843536,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10236737132072449,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10301652550697327,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10176175087690353,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10037865489721298,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10479248315095901,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09852632135152817,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09737955778837204,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09477256238460541,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10027801990509033,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09249085187911987,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09316179156303406,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09331943094730377,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0938970148563385,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08966311812400818,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09970841556787491,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08792617917060852,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08920356631278992,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08672209829092026,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08895683288574219,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08936645090579987,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08525141328573227,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09291283786296844,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08269713819026947,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08257807046175003,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0870291218161583,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08399903029203415,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07891529053449631,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08604110777378082,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08133724331855774,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07826780527830124,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08450188487768173,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07635508477687836,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13966724276542664,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08399508148431778,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07820136845111847,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0743168294429779,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07604221999645233,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07551849633455276,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07385551929473877,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09953973442316055,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.073696069419384,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07282769680023193,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.072267547249794,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10661683976650238,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07010891288518906,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08307849615812302,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06821490079164505,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07032094895839691,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07215777784585953,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06819579750299454,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07441183924674988,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06525541841983795,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07713183760643005,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06422688812017441,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06635627150535583,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10395773500204086,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06441514194011688,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0638122409582138,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06453660875558853,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06438744813203812,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07313144207000732,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06197306886315346,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06240185350179672,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06262701004743576,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10549449920654297,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1309090405702591,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07335858047008514,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06149758771061897,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.061345718801021576,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.060720037668943405,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.059709008783102036,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06536880880594254,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.060143355280160904,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05833613499999046,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.059227071702480316,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08217943459749222,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0581052266061306,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08749306201934814,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09721784293651581,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0582776814699173,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0567765086889267,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09140399098396301,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.059296052902936935,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.055906884372234344,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13640561699867249,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06514880806207657,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.057304542511701584,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05744928866624832,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.054777372628450394,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06228942796587944,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0547194741666317,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05328818038105965,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05478431656956673,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05293708294630051,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.056175872683525085,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0540311262011528,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05313001573085785,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.052815213799476624,</t>
+  </si>
+  <si>
+    <t>validation loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -254,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -268,6 +1472,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,6 +1491,2796 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loss and validation loss'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>validation loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'loss and validation loss'!$D$2:$D$201</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.72247368097305298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59650033712386996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53380256891250599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50109928846359197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48099818825721702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45327091217040999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.437262773513793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43000164628028797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41494548320770203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.395266413688659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38440054655075001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38069185614585799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36971005797386097</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35877498984336798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34778586030006398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35707443952560403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33625990152358998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.346012383699417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32633167505264199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33699557185173001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31739041209220797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30513679981231601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30975377559661799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.295648634433746</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.285462945699691</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29327011108398399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.274871915578842</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27098459005355802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26963567733764598</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29771822690963701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26747426390647799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25303867459297102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.245276093482971</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.239654526114463</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.233736276626586</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22587120532989499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23516824841499301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23085819184780099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.227536991238594</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22312743961810999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.224517926573753</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22113350033759999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.210006058216094</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.20220860838890001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.20748521387577001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.21432112157344799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19865256547927801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.203473836183547</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.19934584200382199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.20275370776653201</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19482934474944999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.18866637349128701</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.196391090750694</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19370500743389099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19910664856433799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18349833786487499</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17116148769855499</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17616374790668399</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.17263641953468301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19480991363525299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.171528220176696</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.17891234159469599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.16670867800712499</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.15189725160598699</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.20949412882328</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.164287954568862</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.151001065969467</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15661647915840099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.150240808725357</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17701496183872201</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.26429238915443398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.14337618649005801</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.15554696321487399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.14953026175498901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.12933950126171101</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.135267153382301</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14207479357719399</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.13130174577236101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.141032889485359</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12571464478969499</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.129763633012771</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.123227469623088</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.124782934784889</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.122169189155101</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.119405873119831</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.16175480186939201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.125174105167388</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.11674412339925699</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.11681655794382</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.12857766449451399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.113527871668338</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.107720181345939</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.122385881841182</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.109866075217723</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.116186909377574</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.123578250408172</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.110575519502162</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.105046682059764</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.10704130679368901</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.111494153738021</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.113951325416564</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.10753687471151301</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.112003706395626</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.13407459855079601</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.11324780434370001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.103534638881683</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.5346853137016296E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.2122301459312397E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.109093382954597</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.2730730772018405E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.3438819050788796E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.3435287475585896E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.9921399950981099E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.6038594841956995E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.103754185140132</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.7251921892166096E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.81325528025627E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.10457105934619899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.8985798656940405E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.7903141975402804E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.9193197190761497E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.17067663371562899</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.6334481835365295E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.3608455955982194E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.4706515073776203E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.08241516351699E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.4182858467101995E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.0130964517593301E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.3909511566162095E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.2776777446269906E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.2091100513935006E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.5788920521736103E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.8055985271930695E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.10443232953548399</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.7445767819881398E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.0656401813030201E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.4096471071243203E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.6605156064033494E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.9057574272155706E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.9111980497836997E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.3227107524871798E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.2099698483943898E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.15687851607799499</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.4338018894195501E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.2703346610069206E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.0666961371898596E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.2665810585021903E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.1294553577899905E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.2568923234939506E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.3488168418407399E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.9881489276885903E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.35466033220291E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8.1935472786426503E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.7216664552688599E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.6897571086883503E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.7606312930583898E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.2465561330318395E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.4548676609992898E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7.6764389872550895E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.3139945268630898E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.9406807422637898E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.1801642179489101E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.4118310809135395E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.2488276511430699E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.4466109275817802E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.47119107842445301</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.8687424063682501E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.2334028780460302E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.1889095008373205E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.5236300230026203E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.6611804068088504E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.0610484331846202E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.0254346579313202E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.3807427883148193E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.9200324118137297E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.3823372125625596E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.2672302126884405E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.2539912760257693E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.25474086403846702</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.3692346215248094E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.5128497779369299E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.1352781951427397E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.5199209153652094E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.70062510669231E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.77546916902065E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.4087289869785295E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.3387304544448797E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.24665096402168E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.5523511022329303E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.6174477338790894E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.96768818795681E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.7691579461097703E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.0069605708122198E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7.1000561118125902E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.87403401732444E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.0125302523374502E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.5241230875253601E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.8782255053520203E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.4004099220037398E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.7943489402532002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-29CE-456E-BDBE-077488B53638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loss and validation loss'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'loss and validation loss'!$E$2:$E$201</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.99614620208740201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67416036128997803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57845538854598999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53216999769210804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50240582227706898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48117560148239102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46241670846938998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44882115721702498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.436559438705444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.425044685602188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40811893343925398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39582231640815702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38658624887466397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.377047568559646</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37299391627311701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36152321100234902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35587126016616799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35256749391555697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34135133028030301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35036924481391901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33110705018043501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.31874984502792297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31331393122673001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.312199115753173</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30111491680145203</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29326111078262301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.29140219092369002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28146350383758501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28481951355934099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27134492993354797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.266805380582809</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.261365115642547</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25395604968070901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26532942056655801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.24479202926158899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.24485766887664701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.25063049793243403</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23536907136440199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.230712264776229</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22996422648429801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.22268655896186801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22256906330585399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.216937765479087</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.216115161776542</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21361583471298201</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.209427639842033</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.210682332515716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.204854846000671</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20358984172344199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.202535584568977</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.198628515005111</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19983310997486101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19341054558753901</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.20347025990486101</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19046908617019601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.186390936374664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.18250925838947199</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.181156501173973</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.178812876343727</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.17352242767810799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.170875638723373</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.17863167822360901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.165050268173217</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.16547776758670801</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.20994536578655201</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.16203299164772</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.15649460256099701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15492494404315901</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.15427029132843001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.15387269854545499</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.15022447705268799</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.15334771573543499</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14374510943889601</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.14405257999897</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.14081810414791099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.14527577161788899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.13739332556724501</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.136894896626472</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.13560660183429701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.130982816219329</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.131520271301269</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12742291390895799</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.126896247267723</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.125763714313507</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.123266868293285</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.15163312852382599</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.12734872102737399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.120889529585838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.122532710433006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.117332115769386</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.11721896380186</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.114695526659488</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.113275937736034</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.112769357860088</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.11023519933223699</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.108546152710914</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.10902425646781901</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.11206319183111101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.14247249066829601</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.105368599295616</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.105261996388435</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.102367371320724</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.103016525506973</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.10176175087690301</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.100378654897212</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.104792483150959</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.8526321351528098E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.7379557788371998E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.4772562384605394E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.10027801990509</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.2490851879119804E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.3161791563034002E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.3319430947303703E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.3897014856338501E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.9663118124008095E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.9708415567874895E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.7926179170608507E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.9203566312789903E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.6722098290920202E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.8956832885742104E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.9366450905799796E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.52514132857322E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.2912837862968403E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.2697138190269401E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.2578070461750003E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.7029121816158295E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.3999030292034094E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.8915290534496293E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.6041107773780795E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.1337243318557698E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.8267805278301197E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.4501884877681704E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.6355084776878301E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.139667242765426</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.3995081484317696E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.82013684511184E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.4316829442977905E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.6042219996452304E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.5518496334552696E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.38555192947387E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.9539734423160497E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.3696069419384003E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.2827696800231906E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.2267547249794006E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.10661683976650201</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.0108912885189001E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.3078496158123002E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.8214900791644995E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.0320948958396898E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.21577778458595E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.8195797502994496E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.4411839246749795E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.5255418419837896E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.7131837606429998E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.4226888120174394E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.6356271505355793E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.10395773500204</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.4415141940116799E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.3812240958213806E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.4536608755588504E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.4387448132038103E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.3131442070007296E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.1973068863153402E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.2401853501796702E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.2627010047435705E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.105494499206542</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.13090904057025901</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.3358580470085102E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.1497587710618903E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.13457188010215E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.0720037668943398E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.9709008783102001E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.5368808805942494E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.0143355280160897E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.8336134999990401E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.9227071702480302E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8.2179434597492204E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.81052266061306E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.7493062019348103E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.7217842936515794E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.8277681469917297E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.6776508688926697E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.1403990983962999E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.9296052902936901E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.5906884372234303E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.13640561699867201</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.5148808062076499E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.7304542511701501E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.7449288666248301E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.4777372628450297E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.2289427965879399E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.4719474166631699E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.3288180381059598E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.4784316569566699E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.29370829463005E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.6175872683525002E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.4031126201152802E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.3130015730857801E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.2815213799476603E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.310858413577E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-29CE-456E-BDBE-077488B53638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loss and validation loss'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>validation loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'loss and validation loss'!$D$2:$D$201</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.72247368097305298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59650033712386996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53380256891250599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50109928846359197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48099818825721702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45327091217040999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.437262773513793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43000164628028797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41494548320770203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.395266413688659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38440054655075001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38069185614585799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36971005797386097</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35877498984336798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34778586030006398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35707443952560403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33625990152358998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.346012383699417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32633167505264199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33699557185173001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31739041209220797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30513679981231601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30975377559661799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.295648634433746</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.285462945699691</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29327011108398399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.274871915578842</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27098459005355802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26963567733764598</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29771822690963701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26747426390647799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25303867459297102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.245276093482971</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.239654526114463</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.233736276626586</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22587120532989499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23516824841499301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23085819184780099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.227536991238594</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22312743961810999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.224517926573753</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22113350033759999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.210006058216094</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.20220860838890001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.20748521387577001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.21432112157344799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19865256547927801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.203473836183547</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.19934584200382199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.20275370776653201</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19482934474944999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.18866637349128701</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.196391090750694</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19370500743389099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19910664856433799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18349833786487499</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17116148769855499</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17616374790668399</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.17263641953468301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19480991363525299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.171528220176696</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.17891234159469599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.16670867800712499</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.15189725160598699</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.20949412882328</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.164287954568862</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.151001065969467</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15661647915840099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.150240808725357</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17701496183872201</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.26429238915443398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.14337618649005801</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.15554696321487399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.14953026175498901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.12933950126171101</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.135267153382301</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14207479357719399</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.13130174577236101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.141032889485359</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12571464478969499</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.129763633012771</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.123227469623088</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.124782934784889</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.122169189155101</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.119405873119831</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.16175480186939201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.125174105167388</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.11674412339925699</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.11681655794382</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.12857766449451399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.113527871668338</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.107720181345939</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.122385881841182</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.109866075217723</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.116186909377574</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.123578250408172</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.110575519502162</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.105046682059764</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.10704130679368901</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.111494153738021</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.113951325416564</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.10753687471151301</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.112003706395626</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.13407459855079601</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.11324780434370001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.103534638881683</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.5346853137016296E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.2122301459312397E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.109093382954597</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.2730730772018405E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.3438819050788796E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.3435287475585896E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.9921399950981099E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.6038594841956995E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.103754185140132</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.7251921892166096E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.81325528025627E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.10457105934619899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.8985798656940405E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.7903141975402804E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.9193197190761497E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.17067663371562899</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.6334481835365295E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.3608455955982194E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.4706515073776203E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.08241516351699E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.4182858467101995E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.0130964517593301E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.3909511566162095E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.2776777446269906E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.2091100513935006E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.5788920521736103E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.8055985271930695E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.10443232953548399</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.7445767819881398E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.0656401813030201E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.4096471071243203E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.6605156064033494E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.9057574272155706E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.9111980497836997E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.3227107524871798E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.2099698483943898E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.15687851607799499</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.4338018894195501E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.2703346610069206E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.0666961371898596E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.2665810585021903E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.1294553577899905E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.2568923234939506E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.3488168418407399E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.9881489276885903E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.35466033220291E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8.1935472786426503E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.7216664552688599E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.6897571086883503E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.7606312930583898E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.2465561330318395E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.4548676609992898E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7.6764389872550895E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.3139945268630898E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.9406807422637898E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.1801642179489101E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.4118310809135395E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.2488276511430699E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.4466109275817802E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.47119107842445301</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.8687424063682501E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.2334028780460302E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.1889095008373205E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.5236300230026203E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.6611804068088504E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.0610484331846202E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.0254346579313202E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.3807427883148193E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.9200324118137297E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.3823372125625596E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.2672302126884405E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.2539912760257693E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.25474086403846702</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.3692346215248094E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.5128497779369299E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.1352781951427397E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.5199209153652094E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.70062510669231E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.77546916902065E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.4087289869785295E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.3387304544448797E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.24665096402168E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.5523511022329303E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.6174477338790894E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.96768818795681E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.7691579461097703E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.0069605708122198E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7.1000561118125902E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.87403401732444E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.0125302523374502E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.5241230875253601E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.8782255053520203E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.4004099220037398E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.7943489402532002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-29CE-456E-BDBE-077488B53638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loss and validation loss'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'loss and validation loss'!$E$2:$E$201</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.99614620208740201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67416036128997803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57845538854598999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53216999769210804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50240582227706898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48117560148239102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46241670846938998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44882115721702498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.436559438705444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.425044685602188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40811893343925398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39582231640815702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38658624887466397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.377047568559646</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37299391627311701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36152321100234902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35587126016616799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35256749391555697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34135133028030301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35036924481391901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33110705018043501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.31874984502792297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31331393122673001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.312199115753173</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30111491680145203</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29326111078262301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.29140219092369002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28146350383758501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28481951355934099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27134492993354797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.266805380582809</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.261365115642547</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25395604968070901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26532942056655801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.24479202926158899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.24485766887664701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.25063049793243403</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23536907136440199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.230712264776229</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22996422648429801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.22268655896186801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22256906330585399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.216937765479087</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.216115161776542</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21361583471298201</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.209427639842033</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.210682332515716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.204854846000671</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20358984172344199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.202535584568977</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.198628515005111</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19983310997486101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19341054558753901</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.20347025990486101</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19046908617019601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.186390936374664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.18250925838947199</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.181156501173973</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.178812876343727</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.17352242767810799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.170875638723373</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.17863167822360901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.165050268173217</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.16547776758670801</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.20994536578655201</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.16203299164772</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.15649460256099701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15492494404315901</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.15427029132843001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.15387269854545499</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.15022447705268799</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.15334771573543499</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14374510943889601</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.14405257999897</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.14081810414791099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.14527577161788899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.13739332556724501</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.136894896626472</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.13560660183429701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.130982816219329</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.131520271301269</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12742291390895799</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.126896247267723</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.125763714313507</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.123266868293285</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.15163312852382599</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.12734872102737399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.120889529585838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.122532710433006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.117332115769386</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.11721896380186</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.114695526659488</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.113275937736034</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.112769357860088</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.11023519933223699</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.108546152710914</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.10902425646781901</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.11206319183111101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.14247249066829601</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.105368599295616</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.105261996388435</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.102367371320724</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.103016525506973</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.10176175087690301</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.100378654897212</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.104792483150959</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.8526321351528098E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.7379557788371998E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.4772562384605394E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.10027801990509</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.2490851879119804E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.3161791563034002E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.3319430947303703E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.3897014856338501E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.9663118124008095E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.9708415567874895E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.7926179170608507E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.9203566312789903E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.6722098290920202E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.8956832885742104E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.9366450905799796E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.52514132857322E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.2912837862968403E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.2697138190269401E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.2578070461750003E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.7029121816158295E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.3999030292034094E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.8915290534496293E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.6041107773780795E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.1337243318557698E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.8267805278301197E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.4501884877681704E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.6355084776878301E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.139667242765426</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.3995081484317696E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.82013684511184E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.4316829442977905E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.6042219996452304E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.5518496334552696E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.38555192947387E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.9539734423160497E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.3696069419384003E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.2827696800231906E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.2267547249794006E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.10661683976650201</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.0108912885189001E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.3078496158123002E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.8214900791644995E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.0320948958396898E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.21577778458595E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.8195797502994496E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.4411839246749795E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.5255418419837896E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.7131837606429998E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.4226888120174394E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.6356271505355793E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.10395773500204</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.4415141940116799E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.3812240958213806E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.4536608755588504E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.4387448132038103E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.3131442070007296E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.1973068863153402E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.2401853501796702E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.2627010047435705E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.105494499206542</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.13090904057025901</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.3358580470085102E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.1497587710618903E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.13457188010215E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.0720037668943398E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.9709008783102001E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.5368808805942494E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.0143355280160897E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.8336134999990401E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.9227071702480302E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8.2179434597492204E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.81052266061306E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.7493062019348103E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.7217842936515794E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.8277681469917297E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.6776508688926697E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.1403990983962999E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.9296052902936901E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.5906884372234303E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.13640561699867201</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.5148808062076499E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.7304542511701501E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.7449288666248301E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.4777372628450297E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.2289427965879399E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.4719474166631699E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.3288180381059598E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.4784316569566699E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.29370829463005E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.6175872683525002E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.4031126201152802E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.3130015730857801E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.2815213799476603E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.310858413577E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-29CE-456E-BDBE-077488B53638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1395874080"/>
+        <c:axId val="1395866176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1395874080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epoch number</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395866176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1395866176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Loss value</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395874080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61964902197444294"/>
+          <c:y val="0.13141566606499769"/>
+          <c:w val="0.35373833745234395"/>
+          <c:h val="8.0101498940539403E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -795,7 +4790,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1219,7 +5214,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3243,6 +7238,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163025F2-D52B-434A-5E5F-36BD0BC35B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3280,7 +7316,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3321,7 +7357,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3658,6 +7694,3241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C9CDD5-CC33-49BC-8529-916201323810}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="13">
+        <f>VALUE(LEFT(A2,LEN(A2)-1))</f>
+        <v>0.72247368097305298</v>
+      </c>
+      <c r="E2" s="13">
+        <f>VALUE(LEFT(B2,LEN(B2)-1))</f>
+        <v>0.99614620208740201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D66" si="0">VALUE(LEFT(A3,LEN(A3)-1))</f>
+        <v>0.59650033712386996</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E66" si="1">VALUE(LEFT(B3,LEN(B3)-1))</f>
+        <v>0.67416036128997803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53380256891250599</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
+        <v>0.57845538854598999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50109928846359197</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.53216999769210804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.48099818825721702</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.50240582227706898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.45327091217040999</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.48117560148239102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.437262773513793</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.46241670846938998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.43000164628028797</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.44882115721702498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.41494548320770203</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.436559438705444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.395266413688659</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.425044685602188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.38440054655075001</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.40811893343925398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.38069185614585799</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.39582231640815702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.36971005797386097</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.38658624887466397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.35877498984336798</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.377047568559646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.34778586030006398</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>0.37299391627311701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.35707443952560403</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.36152321100234902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33625990152358998</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.35587126016616799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.346012383699417</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.35256749391555697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.32633167505264199</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.34135133028030301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33699557185173001</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>0.35036924481391901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.31739041209220797</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33110705018043501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.30513679981231601</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31874984502792297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.30975377559661799</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31331393122673001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.295648634433746</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>0.312199115753173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.285462945699691</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>0.30111491680145203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.29327011108398399</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.29326111078262301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.274871915578842</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.29140219092369002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27098459005355802</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.28146350383758501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>0.26963567733764598</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>0.28481951355934099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.29771822690963701</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>0.27134492993354797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.26747426390647799</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>0.266805380582809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25303867459297102</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.261365115642547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>0.245276093482971</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25395604968070901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>0.239654526114463</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>0.26532942056655801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>0.233736276626586</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>0.24479202926158899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22587120532989499</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="1"/>
+        <v>0.24485766887664701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
+        <v>0.23516824841499301</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25063049793243403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="0"/>
+        <v>0.23085819184780099</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="1"/>
+        <v>0.23536907136440199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
+        <v>0.227536991238594</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="1"/>
+        <v>0.230712264776229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22312743961810999</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="1"/>
+        <v>0.22996422648429801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
+        <v>0.224517926573753</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="1"/>
+        <v>0.22268655896186801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22113350033759999</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="1"/>
+        <v>0.22256906330585399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="0"/>
+        <v>0.210006058216094</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="1"/>
+        <v>0.216937765479087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20220860838890001</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="1"/>
+        <v>0.216115161776542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20748521387577001</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" si="1"/>
+        <v>0.21361583471298201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>291</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="0"/>
+        <v>0.21432112157344799</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="1"/>
+        <v>0.209427639842033</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19865256547927801</v>
+      </c>
+      <c r="E48" s="13">
+        <f t="shared" si="1"/>
+        <v>0.210682332515716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
+        <v>0.203473836183547</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="1"/>
+        <v>0.204854846000671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19934584200382199</v>
+      </c>
+      <c r="E50" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20358984172344199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20275370776653201</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" si="1"/>
+        <v>0.202535584568977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19482934474944999</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" si="1"/>
+        <v>0.198628515005111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18866637349128701</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="1"/>
+        <v>0.19983310997486101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="0"/>
+        <v>0.196391090750694</v>
+      </c>
+      <c r="E54" s="13">
+        <f t="shared" si="1"/>
+        <v>0.19341054558753901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19370500743389099</v>
+      </c>
+      <c r="E55" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20347025990486101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19910664856433799</v>
+      </c>
+      <c r="E56" s="13">
+        <f t="shared" si="1"/>
+        <v>0.19046908617019601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18349833786487499</v>
+      </c>
+      <c r="E57" s="13">
+        <f t="shared" si="1"/>
+        <v>0.186390936374664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17116148769855499</v>
+      </c>
+      <c r="E58" s="13">
+        <f t="shared" si="1"/>
+        <v>0.18250925838947199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17616374790668399</v>
+      </c>
+      <c r="E59" s="13">
+        <f t="shared" si="1"/>
+        <v>0.181156501173973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17263641953468301</v>
+      </c>
+      <c r="E60" s="13">
+        <f t="shared" si="1"/>
+        <v>0.178812876343727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19480991363525299</v>
+      </c>
+      <c r="E61" s="13">
+        <f t="shared" si="1"/>
+        <v>0.17352242767810799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" s="13">
+        <f t="shared" si="0"/>
+        <v>0.171528220176696</v>
+      </c>
+      <c r="E62" s="13">
+        <f t="shared" si="1"/>
+        <v>0.170875638723373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>307</v>
+      </c>
+      <c r="D63" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17891234159469599</v>
+      </c>
+      <c r="E63" s="13">
+        <f t="shared" si="1"/>
+        <v>0.17863167822360901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16670867800712499</v>
+      </c>
+      <c r="E64" s="13">
+        <f t="shared" si="1"/>
+        <v>0.165050268173217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15189725160598699</v>
+      </c>
+      <c r="E65" s="13">
+        <f t="shared" si="1"/>
+        <v>0.16547776758670801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20949412882328</v>
+      </c>
+      <c r="E66" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20994536578655201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" s="13">
+        <f t="shared" ref="D67:D130" si="2">VALUE(LEFT(A67,LEN(A67)-1))</f>
+        <v>0.164287954568862</v>
+      </c>
+      <c r="E67" s="13">
+        <f t="shared" ref="E67:E130" si="3">VALUE(LEFT(B67,LEN(B67)-1))</f>
+        <v>0.16203299164772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" s="13">
+        <f t="shared" si="2"/>
+        <v>0.151001065969467</v>
+      </c>
+      <c r="E68" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15649460256099701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" s="13">
+        <f t="shared" si="2"/>
+        <v>0.15661647915840099</v>
+      </c>
+      <c r="E69" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15492494404315901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D70" s="13">
+        <f t="shared" si="2"/>
+        <v>0.150240808725357</v>
+      </c>
+      <c r="E70" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15427029132843001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" s="13">
+        <f t="shared" si="2"/>
+        <v>0.17701496183872201</v>
+      </c>
+      <c r="E71" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15387269854545499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>316</v>
+      </c>
+      <c r="D72" s="13">
+        <f t="shared" si="2"/>
+        <v>0.26429238915443398</v>
+      </c>
+      <c r="E72" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15022447705268799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" s="13">
+        <f t="shared" si="2"/>
+        <v>0.14337618649005801</v>
+      </c>
+      <c r="E73" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15334771573543499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>318</v>
+      </c>
+      <c r="D74" s="13">
+        <f t="shared" si="2"/>
+        <v>0.15554696321487399</v>
+      </c>
+      <c r="E74" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14374510943889601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>319</v>
+      </c>
+      <c r="D75" s="13">
+        <f t="shared" si="2"/>
+        <v>0.14953026175498901</v>
+      </c>
+      <c r="E75" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14405257999897</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>320</v>
+      </c>
+      <c r="D76" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12933950126171101</v>
+      </c>
+      <c r="E76" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14081810414791099</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" s="13">
+        <f t="shared" si="2"/>
+        <v>0.135267153382301</v>
+      </c>
+      <c r="E77" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14527577161788899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>322</v>
+      </c>
+      <c r="D78" s="13">
+        <f t="shared" si="2"/>
+        <v>0.14207479357719399</v>
+      </c>
+      <c r="E78" s="13">
+        <f t="shared" si="3"/>
+        <v>0.13739332556724501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" s="13">
+        <f t="shared" si="2"/>
+        <v>0.13130174577236101</v>
+      </c>
+      <c r="E79" s="13">
+        <f t="shared" si="3"/>
+        <v>0.136894896626472</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" t="s">
+        <v>324</v>
+      </c>
+      <c r="D80" s="13">
+        <f t="shared" si="2"/>
+        <v>0.141032889485359</v>
+      </c>
+      <c r="E80" s="13">
+        <f t="shared" si="3"/>
+        <v>0.13560660183429701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>325</v>
+      </c>
+      <c r="D81" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12571464478969499</v>
+      </c>
+      <c r="E81" s="13">
+        <f t="shared" si="3"/>
+        <v>0.130982816219329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" s="13">
+        <f t="shared" si="2"/>
+        <v>0.129763633012771</v>
+      </c>
+      <c r="E82" s="13">
+        <f t="shared" si="3"/>
+        <v>0.131520271301269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" s="13">
+        <f t="shared" si="2"/>
+        <v>0.123227469623088</v>
+      </c>
+      <c r="E83" s="13">
+        <f t="shared" si="3"/>
+        <v>0.12742291390895799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" s="13">
+        <f t="shared" si="2"/>
+        <v>0.124782934784889</v>
+      </c>
+      <c r="E84" s="13">
+        <f t="shared" si="3"/>
+        <v>0.126896247267723</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="13">
+        <f t="shared" si="2"/>
+        <v>0.122169189155101</v>
+      </c>
+      <c r="E85" s="13">
+        <f t="shared" si="3"/>
+        <v>0.125763714313507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>330</v>
+      </c>
+      <c r="D86" s="13">
+        <f t="shared" si="2"/>
+        <v>0.119405873119831</v>
+      </c>
+      <c r="E86" s="13">
+        <f t="shared" si="3"/>
+        <v>0.123266868293285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" t="s">
+        <v>331</v>
+      </c>
+      <c r="D87" s="13">
+        <f t="shared" si="2"/>
+        <v>0.16175480186939201</v>
+      </c>
+      <c r="E87" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15163312852382599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" s="13">
+        <f t="shared" si="2"/>
+        <v>0.125174105167388</v>
+      </c>
+      <c r="E88" s="13">
+        <f t="shared" si="3"/>
+        <v>0.12734872102737399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="13">
+        <f t="shared" si="2"/>
+        <v>0.11674412339925699</v>
+      </c>
+      <c r="E89" s="13">
+        <f t="shared" si="3"/>
+        <v>0.120889529585838</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>334</v>
+      </c>
+      <c r="D90" s="13">
+        <f t="shared" si="2"/>
+        <v>0.11681655794382</v>
+      </c>
+      <c r="E90" s="13">
+        <f t="shared" si="3"/>
+        <v>0.122532710433006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" t="s">
+        <v>335</v>
+      </c>
+      <c r="D91" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12857766449451399</v>
+      </c>
+      <c r="E91" s="13">
+        <f t="shared" si="3"/>
+        <v>0.117332115769386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92" s="13">
+        <f t="shared" si="2"/>
+        <v>0.113527871668338</v>
+      </c>
+      <c r="E92" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11721896380186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" t="s">
+        <v>337</v>
+      </c>
+      <c r="D93" s="13">
+        <f t="shared" si="2"/>
+        <v>0.107720181345939</v>
+      </c>
+      <c r="E93" s="13">
+        <f t="shared" si="3"/>
+        <v>0.114695526659488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" t="s">
+        <v>338</v>
+      </c>
+      <c r="D94" s="13">
+        <f t="shared" si="2"/>
+        <v>0.122385881841182</v>
+      </c>
+      <c r="E94" s="13">
+        <f t="shared" si="3"/>
+        <v>0.113275937736034</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" t="s">
+        <v>339</v>
+      </c>
+      <c r="D95" s="13">
+        <f t="shared" si="2"/>
+        <v>0.109866075217723</v>
+      </c>
+      <c r="E95" s="13">
+        <f t="shared" si="3"/>
+        <v>0.112769357860088</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" t="s">
+        <v>340</v>
+      </c>
+      <c r="D96" s="13">
+        <f t="shared" si="2"/>
+        <v>0.116186909377574</v>
+      </c>
+      <c r="E96" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11023519933223699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" t="s">
+        <v>341</v>
+      </c>
+      <c r="D97" s="13">
+        <f t="shared" si="2"/>
+        <v>0.123578250408172</v>
+      </c>
+      <c r="E97" s="13">
+        <f t="shared" si="3"/>
+        <v>0.108546152710914</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" t="s">
+        <v>342</v>
+      </c>
+      <c r="D98" s="13">
+        <f t="shared" si="2"/>
+        <v>0.110575519502162</v>
+      </c>
+      <c r="E98" s="13">
+        <f t="shared" si="3"/>
+        <v>0.10902425646781901</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" t="s">
+        <v>343</v>
+      </c>
+      <c r="D99" s="13">
+        <f t="shared" si="2"/>
+        <v>0.105046682059764</v>
+      </c>
+      <c r="E99" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11206319183111101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" t="s">
+        <v>344</v>
+      </c>
+      <c r="D100" s="13">
+        <f t="shared" si="2"/>
+        <v>0.10704130679368901</v>
+      </c>
+      <c r="E100" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14247249066829601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>345</v>
+      </c>
+      <c r="D101" s="13">
+        <f t="shared" si="2"/>
+        <v>0.111494153738021</v>
+      </c>
+      <c r="E101" s="13">
+        <f t="shared" si="3"/>
+        <v>0.105368599295616</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" t="s">
+        <v>346</v>
+      </c>
+      <c r="D102" s="13">
+        <f t="shared" si="2"/>
+        <v>0.113951325416564</v>
+      </c>
+      <c r="E102" s="13">
+        <f t="shared" si="3"/>
+        <v>0.105261996388435</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" t="s">
+        <v>347</v>
+      </c>
+      <c r="D103" s="13">
+        <f t="shared" si="2"/>
+        <v>0.10753687471151301</v>
+      </c>
+      <c r="E103" s="13">
+        <f t="shared" si="3"/>
+        <v>0.102367371320724</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>348</v>
+      </c>
+      <c r="D104" s="13">
+        <f t="shared" si="2"/>
+        <v>0.112003706395626</v>
+      </c>
+      <c r="E104" s="13">
+        <f t="shared" si="3"/>
+        <v>0.103016525506973</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D105" s="13">
+        <f t="shared" si="2"/>
+        <v>0.13407459855079601</v>
+      </c>
+      <c r="E105" s="13">
+        <f t="shared" si="3"/>
+        <v>0.10176175087690301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>350</v>
+      </c>
+      <c r="D106" s="13">
+        <f t="shared" si="2"/>
+        <v>0.11324780434370001</v>
+      </c>
+      <c r="E106" s="13">
+        <f t="shared" si="3"/>
+        <v>0.100378654897212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" t="s">
+        <v>351</v>
+      </c>
+      <c r="D107" s="13">
+        <f t="shared" si="2"/>
+        <v>0.103534638881683</v>
+      </c>
+      <c r="E107" s="13">
+        <f t="shared" si="3"/>
+        <v>0.104792483150959</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" t="s">
+        <v>352</v>
+      </c>
+      <c r="D108" s="13">
+        <f t="shared" si="2"/>
+        <v>9.5346853137016296E-2</v>
+      </c>
+      <c r="E108" s="13">
+        <f t="shared" si="3"/>
+        <v>9.8526321351528098E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" t="s">
+        <v>353</v>
+      </c>
+      <c r="D109" s="13">
+        <f t="shared" si="2"/>
+        <v>9.2122301459312397E-2</v>
+      </c>
+      <c r="E109" s="13">
+        <f t="shared" si="3"/>
+        <v>9.7379557788371998E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" t="s">
+        <v>354</v>
+      </c>
+      <c r="D110" s="13">
+        <f t="shared" si="2"/>
+        <v>0.109093382954597</v>
+      </c>
+      <c r="E110" s="13">
+        <f t="shared" si="3"/>
+        <v>9.4772562384605394E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" t="s">
+        <v>355</v>
+      </c>
+      <c r="D111" s="13">
+        <f t="shared" si="2"/>
+        <v>9.2730730772018405E-2</v>
+      </c>
+      <c r="E111" s="13">
+        <f t="shared" si="3"/>
+        <v>0.10027801990509</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" t="s">
+        <v>356</v>
+      </c>
+      <c r="D112" s="13">
+        <f t="shared" si="2"/>
+        <v>9.3438819050788796E-2</v>
+      </c>
+      <c r="E112" s="13">
+        <f t="shared" si="3"/>
+        <v>9.2490851879119804E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" t="s">
+        <v>357</v>
+      </c>
+      <c r="D113" s="13">
+        <f t="shared" si="2"/>
+        <v>9.3435287475585896E-2</v>
+      </c>
+      <c r="E113" s="13">
+        <f t="shared" si="3"/>
+        <v>9.3161791563034002E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" s="13">
+        <f t="shared" si="2"/>
+        <v>8.9921399950981099E-2</v>
+      </c>
+      <c r="E114" s="13">
+        <f t="shared" si="3"/>
+        <v>9.3319430947303703E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" t="s">
+        <v>359</v>
+      </c>
+      <c r="D115" s="13">
+        <f t="shared" si="2"/>
+        <v>9.6038594841956995E-2</v>
+      </c>
+      <c r="E115" s="13">
+        <f t="shared" si="3"/>
+        <v>9.3897014856338501E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" t="s">
+        <v>360</v>
+      </c>
+      <c r="D116" s="13">
+        <f t="shared" si="2"/>
+        <v>0.103754185140132</v>
+      </c>
+      <c r="E116" s="13">
+        <f t="shared" si="3"/>
+        <v>8.9663118124008095E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>161</v>
+      </c>
+      <c r="B117" t="s">
+        <v>361</v>
+      </c>
+      <c r="D117" s="13">
+        <f t="shared" si="2"/>
+        <v>9.7251921892166096E-2</v>
+      </c>
+      <c r="E117" s="13">
+        <f t="shared" si="3"/>
+        <v>9.9708415567874895E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" t="s">
+        <v>362</v>
+      </c>
+      <c r="D118" s="13">
+        <f t="shared" si="2"/>
+        <v>8.81325528025627E-2</v>
+      </c>
+      <c r="E118" s="13">
+        <f t="shared" si="3"/>
+        <v>8.7926179170608507E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" s="13">
+        <f t="shared" si="2"/>
+        <v>0.10457105934619899</v>
+      </c>
+      <c r="E119" s="13">
+        <f t="shared" si="3"/>
+        <v>8.9203566312789903E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" t="s">
+        <v>364</v>
+      </c>
+      <c r="D120" s="13">
+        <f t="shared" si="2"/>
+        <v>9.8985798656940405E-2</v>
+      </c>
+      <c r="E120" s="13">
+        <f t="shared" si="3"/>
+        <v>8.6722098290920202E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" t="s">
+        <v>365</v>
+      </c>
+      <c r="D121" s="13">
+        <f t="shared" si="2"/>
+        <v>8.7903141975402804E-2</v>
+      </c>
+      <c r="E121" s="13">
+        <f t="shared" si="3"/>
+        <v>8.8956832885742104E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" s="13">
+        <f t="shared" si="2"/>
+        <v>7.9193197190761497E-2</v>
+      </c>
+      <c r="E122" s="13">
+        <f t="shared" si="3"/>
+        <v>8.9366450905799796E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" t="s">
+        <v>367</v>
+      </c>
+      <c r="D123" s="13">
+        <f t="shared" si="2"/>
+        <v>0.17067663371562899</v>
+      </c>
+      <c r="E123" s="13">
+        <f t="shared" si="3"/>
+        <v>8.52514132857322E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" t="s">
+        <v>368</v>
+      </c>
+      <c r="D124" s="13">
+        <f t="shared" si="2"/>
+        <v>8.6334481835365295E-2</v>
+      </c>
+      <c r="E124" s="13">
+        <f t="shared" si="3"/>
+        <v>9.2912837862968403E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" s="13">
+        <f t="shared" si="2"/>
+        <v>8.3608455955982194E-2</v>
+      </c>
+      <c r="E125" s="13">
+        <f t="shared" si="3"/>
+        <v>8.2697138190269401E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" s="13">
+        <f t="shared" si="2"/>
+        <v>8.4706515073776203E-2</v>
+      </c>
+      <c r="E126" s="13">
+        <f t="shared" si="3"/>
+        <v>8.2578070461750003E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" s="13">
+        <f t="shared" si="2"/>
+        <v>8.08241516351699E-2</v>
+      </c>
+      <c r="E127" s="13">
+        <f t="shared" si="3"/>
+        <v>8.7029121816158295E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" t="s">
+        <v>372</v>
+      </c>
+      <c r="D128" s="13">
+        <f t="shared" si="2"/>
+        <v>8.4182858467101995E-2</v>
+      </c>
+      <c r="E128" s="13">
+        <f t="shared" si="3"/>
+        <v>8.3999030292034094E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" t="s">
+        <v>373</v>
+      </c>
+      <c r="D129" s="13">
+        <f t="shared" si="2"/>
+        <v>8.0130964517593301E-2</v>
+      </c>
+      <c r="E129" s="13">
+        <f t="shared" si="3"/>
+        <v>7.8915290534496293E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" t="s">
+        <v>374</v>
+      </c>
+      <c r="D130" s="13">
+        <f t="shared" si="2"/>
+        <v>8.3909511566162095E-2</v>
+      </c>
+      <c r="E130" s="13">
+        <f t="shared" si="3"/>
+        <v>8.6041107773780795E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" s="13">
+        <f t="shared" ref="D131:D194" si="4">VALUE(LEFT(A131,LEN(A131)-1))</f>
+        <v>8.2776777446269906E-2</v>
+      </c>
+      <c r="E131" s="13">
+        <f t="shared" ref="E131:E194" si="5">VALUE(LEFT(B131,LEN(B131)-1))</f>
+        <v>8.1337243318557698E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" t="s">
+        <v>376</v>
+      </c>
+      <c r="D132" s="13">
+        <f t="shared" si="4"/>
+        <v>8.2091100513935006E-2</v>
+      </c>
+      <c r="E132" s="13">
+        <f t="shared" si="5"/>
+        <v>7.8267805278301197E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" s="13">
+        <f t="shared" si="4"/>
+        <v>8.5788920521736103E-2</v>
+      </c>
+      <c r="E133" s="13">
+        <f t="shared" si="5"/>
+        <v>8.4501884877681704E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" t="s">
+        <v>378</v>
+      </c>
+      <c r="D134" s="13">
+        <f t="shared" si="4"/>
+        <v>7.8055985271930695E-2</v>
+      </c>
+      <c r="E134" s="13">
+        <f t="shared" si="5"/>
+        <v>7.6355084776878301E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>179</v>
+      </c>
+      <c r="B135" t="s">
+        <v>379</v>
+      </c>
+      <c r="D135" s="13">
+        <f t="shared" si="4"/>
+        <v>0.10443232953548399</v>
+      </c>
+      <c r="E135" s="13">
+        <f t="shared" si="5"/>
+        <v>0.139667242765426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" t="s">
+        <v>380</v>
+      </c>
+      <c r="D136" s="13">
+        <f t="shared" si="4"/>
+        <v>7.7445767819881398E-2</v>
+      </c>
+      <c r="E136" s="13">
+        <f t="shared" si="5"/>
+        <v>8.3995081484317696E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>181</v>
+      </c>
+      <c r="B137" t="s">
+        <v>381</v>
+      </c>
+      <c r="D137" s="13">
+        <f t="shared" si="4"/>
+        <v>8.0656401813030201E-2</v>
+      </c>
+      <c r="E137" s="13">
+        <f t="shared" si="5"/>
+        <v>7.82013684511184E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>182</v>
+      </c>
+      <c r="B138" t="s">
+        <v>382</v>
+      </c>
+      <c r="D138" s="13">
+        <f t="shared" si="4"/>
+        <v>7.4096471071243203E-2</v>
+      </c>
+      <c r="E138" s="13">
+        <f t="shared" si="5"/>
+        <v>7.4316829442977905E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>183</v>
+      </c>
+      <c r="B139" t="s">
+        <v>383</v>
+      </c>
+      <c r="D139" s="13">
+        <f t="shared" si="4"/>
+        <v>7.6605156064033494E-2</v>
+      </c>
+      <c r="E139" s="13">
+        <f t="shared" si="5"/>
+        <v>7.6042219996452304E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" t="s">
+        <v>384</v>
+      </c>
+      <c r="D140" s="13">
+        <f t="shared" si="4"/>
+        <v>7.9057574272155706E-2</v>
+      </c>
+      <c r="E140" s="13">
+        <f t="shared" si="5"/>
+        <v>7.5518496334552696E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" t="s">
+        <v>385</v>
+      </c>
+      <c r="D141" s="13">
+        <f t="shared" si="4"/>
+        <v>6.9111980497836997E-2</v>
+      </c>
+      <c r="E141" s="13">
+        <f t="shared" si="5"/>
+        <v>7.38555192947387E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" t="s">
+        <v>386</v>
+      </c>
+      <c r="D142" s="13">
+        <f t="shared" si="4"/>
+        <v>7.3227107524871798E-2</v>
+      </c>
+      <c r="E142" s="13">
+        <f t="shared" si="5"/>
+        <v>9.9539734423160497E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B143" t="s">
+        <v>387</v>
+      </c>
+      <c r="D143" s="13">
+        <f t="shared" si="4"/>
+        <v>8.2099698483943898E-2</v>
+      </c>
+      <c r="E143" s="13">
+        <f t="shared" si="5"/>
+        <v>7.3696069419384003E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>188</v>
+      </c>
+      <c r="B144" t="s">
+        <v>388</v>
+      </c>
+      <c r="D144" s="13">
+        <f t="shared" si="4"/>
+        <v>0.15687851607799499</v>
+      </c>
+      <c r="E144" s="13">
+        <f t="shared" si="5"/>
+        <v>7.2827696800231906E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" t="s">
+        <v>389</v>
+      </c>
+      <c r="D145" s="13">
+        <f t="shared" si="4"/>
+        <v>7.4338018894195501E-2</v>
+      </c>
+      <c r="E145" s="13">
+        <f t="shared" si="5"/>
+        <v>7.2267547249794006E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" t="s">
+        <v>390</v>
+      </c>
+      <c r="D146" s="13">
+        <f t="shared" si="4"/>
+        <v>7.2703346610069206E-2</v>
+      </c>
+      <c r="E146" s="13">
+        <f t="shared" si="5"/>
+        <v>0.10661683976650201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>191</v>
+      </c>
+      <c r="B147" t="s">
+        <v>391</v>
+      </c>
+      <c r="D147" s="13">
+        <f t="shared" si="4"/>
+        <v>7.0666961371898596E-2</v>
+      </c>
+      <c r="E147" s="13">
+        <f t="shared" si="5"/>
+        <v>7.0108912885189001E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>192</v>
+      </c>
+      <c r="B148" t="s">
+        <v>392</v>
+      </c>
+      <c r="D148" s="13">
+        <f t="shared" si="4"/>
+        <v>7.2665810585021903E-2</v>
+      </c>
+      <c r="E148" s="13">
+        <f t="shared" si="5"/>
+        <v>8.3078496158123002E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>193</v>
+      </c>
+      <c r="B149" t="s">
+        <v>393</v>
+      </c>
+      <c r="D149" s="13">
+        <f t="shared" si="4"/>
+        <v>7.1294553577899905E-2</v>
+      </c>
+      <c r="E149" s="13">
+        <f t="shared" si="5"/>
+        <v>6.8214900791644995E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>194</v>
+      </c>
+      <c r="B150" t="s">
+        <v>394</v>
+      </c>
+      <c r="D150" s="13">
+        <f t="shared" si="4"/>
+        <v>7.2568923234939506E-2</v>
+      </c>
+      <c r="E150" s="13">
+        <f t="shared" si="5"/>
+        <v>7.0320948958396898E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>195</v>
+      </c>
+      <c r="B151" t="s">
+        <v>395</v>
+      </c>
+      <c r="D151" s="13">
+        <f t="shared" si="4"/>
+        <v>7.3488168418407399E-2</v>
+      </c>
+      <c r="E151" s="13">
+        <f t="shared" si="5"/>
+        <v>7.21577778458595E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>196</v>
+      </c>
+      <c r="B152" t="s">
+        <v>396</v>
+      </c>
+      <c r="D152" s="13">
+        <f t="shared" si="4"/>
+        <v>7.9881489276885903E-2</v>
+      </c>
+      <c r="E152" s="13">
+        <f t="shared" si="5"/>
+        <v>6.8195797502994496E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" t="s">
+        <v>397</v>
+      </c>
+      <c r="D153" s="13">
+        <f t="shared" si="4"/>
+        <v>7.35466033220291E-2</v>
+      </c>
+      <c r="E153" s="13">
+        <f t="shared" si="5"/>
+        <v>7.4411839246749795E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>198</v>
+      </c>
+      <c r="B154" t="s">
+        <v>398</v>
+      </c>
+      <c r="D154" s="13">
+        <f t="shared" si="4"/>
+        <v>8.1935472786426503E-2</v>
+      </c>
+      <c r="E154" s="13">
+        <f t="shared" si="5"/>
+        <v>6.5255418419837896E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>199</v>
+      </c>
+      <c r="B155" t="s">
+        <v>399</v>
+      </c>
+      <c r="D155" s="13">
+        <f t="shared" si="4"/>
+        <v>6.7216664552688599E-2</v>
+      </c>
+      <c r="E155" s="13">
+        <f t="shared" si="5"/>
+        <v>7.7131837606429998E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" t="s">
+        <v>400</v>
+      </c>
+      <c r="D156" s="13">
+        <f t="shared" si="4"/>
+        <v>6.6897571086883503E-2</v>
+      </c>
+      <c r="E156" s="13">
+        <f t="shared" si="5"/>
+        <v>6.4226888120174394E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>201</v>
+      </c>
+      <c r="B157" t="s">
+        <v>401</v>
+      </c>
+      <c r="D157" s="13">
+        <f t="shared" si="4"/>
+        <v>7.7606312930583898E-2</v>
+      </c>
+      <c r="E157" s="13">
+        <f t="shared" si="5"/>
+        <v>6.6356271505355793E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" t="s">
+        <v>402</v>
+      </c>
+      <c r="D158" s="13">
+        <f t="shared" si="4"/>
+        <v>7.2465561330318395E-2</v>
+      </c>
+      <c r="E158" s="13">
+        <f t="shared" si="5"/>
+        <v>0.10395773500204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" t="s">
+        <v>403</v>
+      </c>
+      <c r="D159" s="13">
+        <f t="shared" si="4"/>
+        <v>7.4548676609992898E-2</v>
+      </c>
+      <c r="E159" s="13">
+        <f t="shared" si="5"/>
+        <v>6.4415141940116799E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>204</v>
+      </c>
+      <c r="B160" t="s">
+        <v>404</v>
+      </c>
+      <c r="D160" s="13">
+        <f t="shared" si="4"/>
+        <v>7.6764389872550895E-2</v>
+      </c>
+      <c r="E160" s="13">
+        <f t="shared" si="5"/>
+        <v>6.3812240958213806E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>205</v>
+      </c>
+      <c r="B161" t="s">
+        <v>405</v>
+      </c>
+      <c r="D161" s="13">
+        <f t="shared" si="4"/>
+        <v>6.3139945268630898E-2</v>
+      </c>
+      <c r="E161" s="13">
+        <f t="shared" si="5"/>
+        <v>6.4536608755588504E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" t="s">
+        <v>406</v>
+      </c>
+      <c r="D162" s="13">
+        <f t="shared" si="4"/>
+        <v>6.9406807422637898E-2</v>
+      </c>
+      <c r="E162" s="13">
+        <f t="shared" si="5"/>
+        <v>6.4387448132038103E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>207</v>
+      </c>
+      <c r="B163" t="s">
+        <v>407</v>
+      </c>
+      <c r="D163" s="13">
+        <f t="shared" si="4"/>
+        <v>6.1801642179489101E-2</v>
+      </c>
+      <c r="E163" s="13">
+        <f t="shared" si="5"/>
+        <v>7.3131442070007296E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" t="s">
+        <v>408</v>
+      </c>
+      <c r="D164" s="13">
+        <f t="shared" si="4"/>
+        <v>6.4118310809135395E-2</v>
+      </c>
+      <c r="E164" s="13">
+        <f t="shared" si="5"/>
+        <v>6.1973068863153402E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>209</v>
+      </c>
+      <c r="B165" t="s">
+        <v>409</v>
+      </c>
+      <c r="D165" s="13">
+        <f t="shared" si="4"/>
+        <v>6.2488276511430699E-2</v>
+      </c>
+      <c r="E165" s="13">
+        <f t="shared" si="5"/>
+        <v>6.2401853501796702E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>210</v>
+      </c>
+      <c r="B166" t="s">
+        <v>410</v>
+      </c>
+      <c r="D166" s="13">
+        <f t="shared" si="4"/>
+        <v>7.4466109275817802E-2</v>
+      </c>
+      <c r="E166" s="13">
+        <f t="shared" si="5"/>
+        <v>6.2627010047435705E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>211</v>
+      </c>
+      <c r="B167" t="s">
+        <v>411</v>
+      </c>
+      <c r="D167" s="13">
+        <f t="shared" si="4"/>
+        <v>0.47119107842445301</v>
+      </c>
+      <c r="E167" s="13">
+        <f t="shared" si="5"/>
+        <v>0.105494499206542</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>212</v>
+      </c>
+      <c r="B168" t="s">
+        <v>412</v>
+      </c>
+      <c r="D168" s="13">
+        <f t="shared" si="4"/>
+        <v>6.8687424063682501E-2</v>
+      </c>
+      <c r="E168" s="13">
+        <f t="shared" si="5"/>
+        <v>0.13090904057025901</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>213</v>
+      </c>
+      <c r="B169" t="s">
+        <v>413</v>
+      </c>
+      <c r="D169" s="13">
+        <f t="shared" si="4"/>
+        <v>7.2334028780460302E-2</v>
+      </c>
+      <c r="E169" s="13">
+        <f t="shared" si="5"/>
+        <v>7.3358580470085102E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>214</v>
+      </c>
+      <c r="B170" t="s">
+        <v>414</v>
+      </c>
+      <c r="D170" s="13">
+        <f t="shared" si="4"/>
+        <v>7.1889095008373205E-2</v>
+      </c>
+      <c r="E170" s="13">
+        <f t="shared" si="5"/>
+        <v>6.1497587710618903E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>215</v>
+      </c>
+      <c r="B171" t="s">
+        <v>415</v>
+      </c>
+      <c r="D171" s="13">
+        <f t="shared" si="4"/>
+        <v>6.5236300230026203E-2</v>
+      </c>
+      <c r="E171" s="13">
+        <f t="shared" si="5"/>
+        <v>6.13457188010215E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>216</v>
+      </c>
+      <c r="B172" t="s">
+        <v>416</v>
+      </c>
+      <c r="D172" s="13">
+        <f t="shared" si="4"/>
+        <v>6.6611804068088504E-2</v>
+      </c>
+      <c r="E172" s="13">
+        <f t="shared" si="5"/>
+        <v>6.0720037668943398E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>217</v>
+      </c>
+      <c r="B173" t="s">
+        <v>417</v>
+      </c>
+      <c r="D173" s="13">
+        <f t="shared" si="4"/>
+        <v>6.0610484331846202E-2</v>
+      </c>
+      <c r="E173" s="13">
+        <f t="shared" si="5"/>
+        <v>5.9709008783102001E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>218</v>
+      </c>
+      <c r="B174" t="s">
+        <v>418</v>
+      </c>
+      <c r="D174" s="13">
+        <f t="shared" si="4"/>
+        <v>6.0254346579313202E-2</v>
+      </c>
+      <c r="E174" s="13">
+        <f t="shared" si="5"/>
+        <v>6.5368808805942494E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>219</v>
+      </c>
+      <c r="B175" t="s">
+        <v>419</v>
+      </c>
+      <c r="D175" s="13">
+        <f t="shared" si="4"/>
+        <v>6.3807427883148193E-2</v>
+      </c>
+      <c r="E175" s="13">
+        <f t="shared" si="5"/>
+        <v>6.0143355280160897E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176" t="s">
+        <v>420</v>
+      </c>
+      <c r="D176" s="13">
+        <f t="shared" si="4"/>
+        <v>5.9200324118137297E-2</v>
+      </c>
+      <c r="E176" s="13">
+        <f t="shared" si="5"/>
+        <v>5.8336134999990401E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>221</v>
+      </c>
+      <c r="B177" t="s">
+        <v>421</v>
+      </c>
+      <c r="D177" s="13">
+        <f t="shared" si="4"/>
+        <v>6.3823372125625596E-2</v>
+      </c>
+      <c r="E177" s="13">
+        <f t="shared" si="5"/>
+        <v>5.9227071702480302E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" t="s">
+        <v>422</v>
+      </c>
+      <c r="D178" s="13">
+        <f t="shared" si="4"/>
+        <v>6.2672302126884405E-2</v>
+      </c>
+      <c r="E178" s="13">
+        <f t="shared" si="5"/>
+        <v>8.2179434597492204E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>223</v>
+      </c>
+      <c r="B179" t="s">
+        <v>423</v>
+      </c>
+      <c r="D179" s="13">
+        <f t="shared" si="4"/>
+        <v>6.2539912760257693E-2</v>
+      </c>
+      <c r="E179" s="13">
+        <f t="shared" si="5"/>
+        <v>5.81052266061306E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>224</v>
+      </c>
+      <c r="B180" t="s">
+        <v>424</v>
+      </c>
+      <c r="D180" s="13">
+        <f t="shared" si="4"/>
+        <v>0.25474086403846702</v>
+      </c>
+      <c r="E180" s="13">
+        <f t="shared" si="5"/>
+        <v>8.7493062019348103E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>225</v>
+      </c>
+      <c r="B181" t="s">
+        <v>425</v>
+      </c>
+      <c r="D181" s="13">
+        <f t="shared" si="4"/>
+        <v>6.3692346215248094E-2</v>
+      </c>
+      <c r="E181" s="13">
+        <f t="shared" si="5"/>
+        <v>9.7217842936515794E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" t="s">
+        <v>426</v>
+      </c>
+      <c r="D182" s="13">
+        <f t="shared" si="4"/>
+        <v>6.5128497779369299E-2</v>
+      </c>
+      <c r="E182" s="13">
+        <f t="shared" si="5"/>
+        <v>5.8277681469917297E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>227</v>
+      </c>
+      <c r="B183" t="s">
+        <v>427</v>
+      </c>
+      <c r="D183" s="13">
+        <f t="shared" si="4"/>
+        <v>6.1352781951427397E-2</v>
+      </c>
+      <c r="E183" s="13">
+        <f t="shared" si="5"/>
+        <v>5.6776508688926697E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>228</v>
+      </c>
+      <c r="B184" t="s">
+        <v>428</v>
+      </c>
+      <c r="D184" s="13">
+        <f t="shared" si="4"/>
+        <v>7.5199209153652094E-2</v>
+      </c>
+      <c r="E184" s="13">
+        <f t="shared" si="5"/>
+        <v>9.1403990983962999E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B185" t="s">
+        <v>429</v>
+      </c>
+      <c r="D185" s="13">
+        <f t="shared" si="4"/>
+        <v>5.70062510669231E-2</v>
+      </c>
+      <c r="E185" s="13">
+        <f t="shared" si="5"/>
+        <v>5.9296052902936901E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>230</v>
+      </c>
+      <c r="B186" t="s">
+        <v>430</v>
+      </c>
+      <c r="D186" s="13">
+        <f t="shared" si="4"/>
+        <v>5.77546916902065E-2</v>
+      </c>
+      <c r="E186" s="13">
+        <f t="shared" si="5"/>
+        <v>5.5906884372234303E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>231</v>
+      </c>
+      <c r="B187" t="s">
+        <v>431</v>
+      </c>
+      <c r="D187" s="13">
+        <f t="shared" si="4"/>
+        <v>8.4087289869785295E-2</v>
+      </c>
+      <c r="E187" s="13">
+        <f t="shared" si="5"/>
+        <v>0.13640561699867201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>232</v>
+      </c>
+      <c r="B188" t="s">
+        <v>432</v>
+      </c>
+      <c r="D188" s="13">
+        <f t="shared" si="4"/>
+        <v>6.3387304544448797E-2</v>
+      </c>
+      <c r="E188" s="13">
+        <f t="shared" si="5"/>
+        <v>6.5148808062076499E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>233</v>
+      </c>
+      <c r="B189" t="s">
+        <v>433</v>
+      </c>
+      <c r="D189" s="13">
+        <f t="shared" si="4"/>
+        <v>6.24665096402168E-2</v>
+      </c>
+      <c r="E189" s="13">
+        <f t="shared" si="5"/>
+        <v>5.7304542511701501E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>234</v>
+      </c>
+      <c r="B190" t="s">
+        <v>434</v>
+      </c>
+      <c r="D190" s="13">
+        <f t="shared" si="4"/>
+        <v>5.5523511022329303E-2</v>
+      </c>
+      <c r="E190" s="13">
+        <f t="shared" si="5"/>
+        <v>5.7449288666248301E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>235</v>
+      </c>
+      <c r="B191" t="s">
+        <v>435</v>
+      </c>
+      <c r="D191" s="13">
+        <f t="shared" si="4"/>
+        <v>6.6174477338790894E-2</v>
+      </c>
+      <c r="E191" s="13">
+        <f t="shared" si="5"/>
+        <v>5.4777372628450297E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>236</v>
+      </c>
+      <c r="B192" t="s">
+        <v>436</v>
+      </c>
+      <c r="D192" s="13">
+        <f t="shared" si="4"/>
+        <v>5.96768818795681E-2</v>
+      </c>
+      <c r="E192" s="13">
+        <f t="shared" si="5"/>
+        <v>6.2289427965879399E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>237</v>
+      </c>
+      <c r="B193" t="s">
+        <v>437</v>
+      </c>
+      <c r="D193" s="13">
+        <f t="shared" si="4"/>
+        <v>6.7691579461097703E-2</v>
+      </c>
+      <c r="E193" s="13">
+        <f t="shared" si="5"/>
+        <v>5.4719474166631699E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>238</v>
+      </c>
+      <c r="B194" t="s">
+        <v>438</v>
+      </c>
+      <c r="D194" s="13">
+        <f t="shared" si="4"/>
+        <v>6.0069605708122198E-2</v>
+      </c>
+      <c r="E194" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3288180381059598E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>239</v>
+      </c>
+      <c r="B195" t="s">
+        <v>439</v>
+      </c>
+      <c r="D195" s="13">
+        <f t="shared" ref="D195:D201" si="6">VALUE(LEFT(A195,LEN(A195)-1))</f>
+        <v>7.1000561118125902E-2</v>
+      </c>
+      <c r="E195" s="13">
+        <f t="shared" ref="E195:E201" si="7">VALUE(LEFT(B195,LEN(B195)-1))</f>
+        <v>5.4784316569566699E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>240</v>
+      </c>
+      <c r="B196" t="s">
+        <v>440</v>
+      </c>
+      <c r="D196" s="13">
+        <f t="shared" si="6"/>
+        <v>5.87403401732444E-2</v>
+      </c>
+      <c r="E196" s="13">
+        <f t="shared" si="7"/>
+        <v>5.29370829463005E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>241</v>
+      </c>
+      <c r="B197" t="s">
+        <v>441</v>
+      </c>
+      <c r="D197" s="13">
+        <f t="shared" si="6"/>
+        <v>6.0125302523374502E-2</v>
+      </c>
+      <c r="E197" s="13">
+        <f t="shared" si="7"/>
+        <v>5.6175872683525002E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198" t="s">
+        <v>442</v>
+      </c>
+      <c r="D198" s="13">
+        <f t="shared" si="6"/>
+        <v>5.5241230875253601E-2</v>
+      </c>
+      <c r="E198" s="13">
+        <f t="shared" si="7"/>
+        <v>5.4031126201152802E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>243</v>
+      </c>
+      <c r="B199" t="s">
+        <v>443</v>
+      </c>
+      <c r="D199" s="13">
+        <f t="shared" si="6"/>
+        <v>6.8782255053520203E-2</v>
+      </c>
+      <c r="E199" s="13">
+        <f t="shared" si="7"/>
+        <v>5.3130015730857801E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>244</v>
+      </c>
+      <c r="B200" t="s">
+        <v>444</v>
+      </c>
+      <c r="D200" s="13">
+        <f t="shared" si="6"/>
+        <v>5.4004099220037398E-2</v>
+      </c>
+      <c r="E200" s="13">
+        <f t="shared" si="7"/>
+        <v>5.2815213799476603E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>5.7943489402532501E-2</v>
+      </c>
+      <c r="B201">
+        <v>5.3108584135770798E-2</v>
+      </c>
+      <c r="D201" s="13">
+        <f t="shared" si="6"/>
+        <v>5.7943489402532002E-2</v>
+      </c>
+      <c r="E201" s="13">
+        <f t="shared" si="7"/>
+        <v>5.310858413577E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103BF635-2A95-45CB-8ED0-C806324328B1}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -4282,7 +11553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC61A70-4EA9-4ACB-92AC-A8DE3938E870}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -4495,7 +11766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9D003F-5BC4-4069-AEBA-9B12FCB38480}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -4708,7 +11979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF9E735-B7DF-40F9-ACE2-2B3B6DAA8DF2}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -4871,18 +12142,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FDB31-9137-4F19-B4BF-8B8C88576A8A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5187,7 +12446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53A692F-6758-4940-A044-554F66E36FBE}">
   <dimension ref="A1:BZU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
